--- a/[5] Tester Results/MEAN_VARIABLES_BY_DATE_SEX.xlsx
+++ b/[5] Tester Results/MEAN_VARIABLES_BY_DATE_SEX.xlsx
@@ -502,31 +502,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11.5359477124183</v>
+        <v>2.007843137254902</v>
       </c>
       <c r="D2" t="n">
-        <v>30.14901960784314</v>
+        <v>29.74967320261438</v>
       </c>
       <c r="E2" t="n">
-        <v>18.61307189542484</v>
+        <v>27.74183006535948</v>
       </c>
       <c r="F2" t="n">
-        <v>63.00718954248367</v>
+        <v>26.79509803921568</v>
       </c>
       <c r="G2" t="n">
-        <v>63.34723202614379</v>
+        <v>26.37342798299339</v>
       </c>
       <c r="H2" t="n">
-        <v>56.63312091503268</v>
+        <v>25.06213435053516</v>
       </c>
       <c r="I2" t="n">
-        <v>24.84507843137255</v>
+        <v>8.427738562091504</v>
       </c>
       <c r="J2" t="n">
-        <v>155.6579444444444</v>
+        <v>24.2203137254902</v>
       </c>
       <c r="K2" t="n">
-        <v>6515.070653594771</v>
+        <v>953.1494640522876</v>
       </c>
     </row>
     <row r="3">
@@ -541,31 +541,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10.54183006535948</v>
+        <v>2.101307189542484</v>
       </c>
       <c r="D3" t="n">
-        <v>31.09869281045751</v>
+        <v>24.46666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>20.55686274509804</v>
+        <v>22.36535947712418</v>
       </c>
       <c r="F3" t="n">
-        <v>124.0624183006536</v>
+        <v>55.48888888888889</v>
       </c>
       <c r="G3" t="n">
-        <v>123.5986862745098</v>
+        <v>53.64922479648316</v>
       </c>
       <c r="H3" t="n">
-        <v>112.0085392156863</v>
+        <v>50.09241090177498</v>
       </c>
       <c r="I3" t="n">
-        <v>50.00504248366013</v>
+        <v>18.42806535947712</v>
       </c>
       <c r="J3" t="n">
-        <v>134.8920163398693</v>
+        <v>38.45526797385621</v>
       </c>
       <c r="K3" t="n">
-        <v>12336.65382352941</v>
+        <v>2517.50260130719</v>
       </c>
     </row>
     <row r="4">
@@ -580,31 +580,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10.13529411764706</v>
+        <v>2.023529411764706</v>
       </c>
       <c r="D4" t="n">
-        <v>30.59607843137255</v>
+        <v>27.31764705882353</v>
       </c>
       <c r="E4" t="n">
-        <v>20.46078431372549</v>
+        <v>25.29411764705882</v>
       </c>
       <c r="F4" t="n">
-        <v>106.5460784313725</v>
+        <v>44.86470588235294</v>
       </c>
       <c r="G4" t="n">
-        <v>106.4958333333333</v>
+        <v>44.05075548482908</v>
       </c>
       <c r="H4" t="n">
-        <v>95.37499019607843</v>
+        <v>41.9322667101353</v>
       </c>
       <c r="I4" t="n">
-        <v>44.32374509803922</v>
+        <v>14.735</v>
       </c>
       <c r="J4" t="n">
-        <v>159.5361862745098</v>
+        <v>28.44575490196079</v>
       </c>
       <c r="K4" t="n">
-        <v>12713.435</v>
+        <v>1847.172754901961</v>
       </c>
     </row>
     <row r="5">
@@ -619,31 +619,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10.39411764705882</v>
+        <v>2.015686274509804</v>
       </c>
       <c r="D5" t="n">
-        <v>30.01307189542484</v>
+        <v>21.36601307189543</v>
       </c>
       <c r="E5" t="n">
-        <v>19.61895424836601</v>
+        <v>19.35032679738562</v>
       </c>
       <c r="F5" t="n">
-        <v>190.5274509803922</v>
+        <v>91.17450980392157</v>
       </c>
       <c r="G5" t="n">
-        <v>189.9938333333333</v>
+        <v>88.03070807604625</v>
       </c>
       <c r="H5" t="n">
-        <v>171.0158562091503</v>
+        <v>82.08229601110152</v>
       </c>
       <c r="I5" t="n">
-        <v>72.28517320261437</v>
+        <v>29.62574836601307</v>
       </c>
       <c r="J5" t="n">
-        <v>115.0097287581699</v>
+        <v>36.55239869281046</v>
       </c>
       <c r="K5" t="n">
-        <v>17486.90781045752</v>
+        <v>4003.783709150327</v>
       </c>
     </row>
     <row r="6">
@@ -658,31 +658,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10.54509803921569</v>
+        <v>2.03921568627451</v>
       </c>
       <c r="D6" t="n">
-        <v>31.10196078431373</v>
+        <v>30.4235294117647</v>
       </c>
       <c r="E6" t="n">
-        <v>20.55686274509804</v>
+        <v>28.38431372549019</v>
       </c>
       <c r="F6" t="n">
-        <v>95.8669934640523</v>
+        <v>39.04607843137255</v>
       </c>
       <c r="G6" t="n">
-        <v>95.94165032679739</v>
+        <v>38.4095718977173</v>
       </c>
       <c r="H6" t="n">
-        <v>86.59853921568627</v>
+        <v>36.9742225951342</v>
       </c>
       <c r="I6" t="n">
-        <v>38.48129411764706</v>
+        <v>12.54043137254902</v>
       </c>
       <c r="J6" t="n">
-        <v>156.7931045751634</v>
+        <v>24.60050653594771</v>
       </c>
       <c r="K6" t="n">
-        <v>10121.97094771242</v>
+        <v>1321.504251633987</v>
       </c>
     </row>
     <row r="7">
@@ -697,31 +697,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10.2562091503268</v>
+        <v>2.049019607843137</v>
       </c>
       <c r="D7" t="n">
-        <v>29.75882352941177</v>
+        <v>24.93202614379085</v>
       </c>
       <c r="E7" t="n">
-        <v>19.50261437908497</v>
+        <v>22.88300653594771</v>
       </c>
       <c r="F7" t="n">
-        <v>159.1650326797386</v>
+        <v>74.62320261437908</v>
       </c>
       <c r="G7" t="n">
-        <v>159.2682777777778</v>
+        <v>72.16335511173132</v>
       </c>
       <c r="H7" t="n">
-        <v>144.4901601307189</v>
+        <v>66.66347989557049</v>
       </c>
       <c r="I7" t="n">
-        <v>58.85632352941177</v>
+        <v>24.28159477124183</v>
       </c>
       <c r="J7" t="n">
-        <v>107.8652549019608</v>
+        <v>15204.56958496732</v>
       </c>
       <c r="K7" t="n">
-        <v>13981.30053267974</v>
+        <v>2972.337702614379</v>
       </c>
     </row>
   </sheetData>

--- a/[5] Tester Results/MEAN_VARIABLES_BY_DATE_SEX.xlsx
+++ b/[5] Tester Results/MEAN_VARIABLES_BY_DATE_SEX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,40 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
@@ -502,30 +492,24 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.007843137254902</v>
+        <v>29.74967320261438</v>
       </c>
       <c r="D2" t="n">
-        <v>29.74967320261438</v>
+        <v>26.79509803921568</v>
       </c>
       <c r="E2" t="n">
-        <v>27.74183006535948</v>
+        <v>26.37342798299339</v>
       </c>
       <c r="F2" t="n">
-        <v>26.79509803921568</v>
+        <v>25.06213435053516</v>
       </c>
       <c r="G2" t="n">
-        <v>26.37342798299339</v>
+        <v>8.427738562091504</v>
       </c>
       <c r="H2" t="n">
-        <v>25.06213435053516</v>
+        <v>24.2203137254902</v>
       </c>
       <c r="I2" t="n">
-        <v>8.427738562091504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>24.2203137254902</v>
-      </c>
-      <c r="K2" t="n">
         <v>953.1494640522876</v>
       </c>
     </row>
@@ -541,30 +525,24 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.101307189542484</v>
+        <v>24.46666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>24.46666666666667</v>
+        <v>55.48888888888889</v>
       </c>
       <c r="E3" t="n">
-        <v>22.36535947712418</v>
+        <v>53.64922479648316</v>
       </c>
       <c r="F3" t="n">
-        <v>55.48888888888889</v>
+        <v>50.09241090177498</v>
       </c>
       <c r="G3" t="n">
-        <v>53.64922479648316</v>
+        <v>18.42806535947712</v>
       </c>
       <c r="H3" t="n">
-        <v>50.09241090177498</v>
+        <v>38.45526797385621</v>
       </c>
       <c r="I3" t="n">
-        <v>18.42806535947712</v>
-      </c>
-      <c r="J3" t="n">
-        <v>38.45526797385621</v>
-      </c>
-      <c r="K3" t="n">
         <v>2517.50260130719</v>
       </c>
     </row>
@@ -580,30 +558,24 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.023529411764706</v>
+        <v>27.31764705882353</v>
       </c>
       <c r="D4" t="n">
-        <v>27.31764705882353</v>
+        <v>44.86470588235294</v>
       </c>
       <c r="E4" t="n">
-        <v>25.29411764705882</v>
+        <v>44.05075548482908</v>
       </c>
       <c r="F4" t="n">
-        <v>44.86470588235294</v>
+        <v>41.9322667101353</v>
       </c>
       <c r="G4" t="n">
-        <v>44.05075548482908</v>
+        <v>14.735</v>
       </c>
       <c r="H4" t="n">
-        <v>41.9322667101353</v>
+        <v>28.44575490196079</v>
       </c>
       <c r="I4" t="n">
-        <v>14.735</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28.44575490196079</v>
-      </c>
-      <c r="K4" t="n">
         <v>1847.172754901961</v>
       </c>
     </row>
@@ -619,30 +591,24 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.015686274509804</v>
+        <v>21.36601307189543</v>
       </c>
       <c r="D5" t="n">
-        <v>21.36601307189543</v>
+        <v>91.17450980392157</v>
       </c>
       <c r="E5" t="n">
-        <v>19.35032679738562</v>
+        <v>88.03070807604625</v>
       </c>
       <c r="F5" t="n">
-        <v>91.17450980392157</v>
+        <v>82.08229601110152</v>
       </c>
       <c r="G5" t="n">
-        <v>88.03070807604625</v>
+        <v>29.62574836601307</v>
       </c>
       <c r="H5" t="n">
-        <v>82.08229601110152</v>
+        <v>36.55239869281046</v>
       </c>
       <c r="I5" t="n">
-        <v>29.62574836601307</v>
-      </c>
-      <c r="J5" t="n">
-        <v>36.55239869281046</v>
-      </c>
-      <c r="K5" t="n">
         <v>4003.783709150327</v>
       </c>
     </row>
@@ -658,30 +624,24 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.03921568627451</v>
+        <v>30.4235294117647</v>
       </c>
       <c r="D6" t="n">
-        <v>30.4235294117647</v>
+        <v>39.04607843137255</v>
       </c>
       <c r="E6" t="n">
-        <v>28.38431372549019</v>
+        <v>38.4095718977173</v>
       </c>
       <c r="F6" t="n">
-        <v>39.04607843137255</v>
+        <v>36.9742225951342</v>
       </c>
       <c r="G6" t="n">
-        <v>38.4095718977173</v>
+        <v>12.54043137254902</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9742225951342</v>
+        <v>24.60050653594771</v>
       </c>
       <c r="I6" t="n">
-        <v>12.54043137254902</v>
-      </c>
-      <c r="J6" t="n">
-        <v>24.60050653594771</v>
-      </c>
-      <c r="K6" t="n">
         <v>1321.504251633987</v>
       </c>
     </row>
@@ -697,30 +657,24 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.049019607843137</v>
+        <v>24.93202614379085</v>
       </c>
       <c r="D7" t="n">
-        <v>24.93202614379085</v>
+        <v>74.62320261437908</v>
       </c>
       <c r="E7" t="n">
-        <v>22.88300653594771</v>
+        <v>72.16335511173132</v>
       </c>
       <c r="F7" t="n">
-        <v>74.62320261437908</v>
+        <v>66.66347989557049</v>
       </c>
       <c r="G7" t="n">
-        <v>72.16335511173132</v>
+        <v>24.28159477124183</v>
       </c>
       <c r="H7" t="n">
-        <v>66.66347989557049</v>
+        <v>15204.56958496732</v>
       </c>
       <c r="I7" t="n">
-        <v>24.28159477124183</v>
-      </c>
-      <c r="J7" t="n">
-        <v>15204.56958496732</v>
-      </c>
-      <c r="K7" t="n">
         <v>2972.337702614379</v>
       </c>
     </row>

--- a/[5] Tester Results/MEAN_VARIABLES_BY_DATE_SEX.xlsx
+++ b/[5] Tester Results/MEAN_VARIABLES_BY_DATE_SEX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,11 +471,6 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -507,10 +502,7 @@
         <v>8.427738562091504</v>
       </c>
       <c r="H2" t="n">
-        <v>24.2203137254902</v>
-      </c>
-      <c r="I2" t="n">
-        <v>953.1494640522876</v>
+        <v>607.4312712418301</v>
       </c>
     </row>
     <row r="3">
@@ -540,10 +532,7 @@
         <v>18.42806535947712</v>
       </c>
       <c r="H3" t="n">
-        <v>38.45526797385621</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2517.50260130719</v>
+        <v>1606.305382352941</v>
       </c>
     </row>
     <row r="4">
@@ -573,10 +562,7 @@
         <v>14.735</v>
       </c>
       <c r="H4" t="n">
-        <v>28.44575490196079</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1847.172754901961</v>
+        <v>1171.584049019608</v>
       </c>
     </row>
     <row r="5">
@@ -606,10 +592,7 @@
         <v>29.62574836601307</v>
       </c>
       <c r="H5" t="n">
-        <v>36.55239869281046</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4003.783709150327</v>
+        <v>2599.928215686275</v>
       </c>
     </row>
     <row r="6">
@@ -639,10 +622,7 @@
         <v>12.54043137254902</v>
       </c>
       <c r="H6" t="n">
-        <v>24.60050653594771</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1321.504251633987</v>
+        <v>840.9673496732026</v>
       </c>
     </row>
     <row r="7">
@@ -672,10 +652,7 @@
         <v>24.28159477124183</v>
       </c>
       <c r="H7" t="n">
-        <v>15204.56958496732</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2972.337702614379</v>
+        <v>1978.743745098039</v>
       </c>
     </row>
   </sheetData>
